--- a/training/Nguyễn TIến Dũng-51600017/Các yêu cầu của khách hàng đã hoàn thành.xlsx
+++ b/training/Nguyễn TIến Dũng-51600017/Các yêu cầu của khách hàng đã hoàn thành.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\CNPM\CNPM\training\Nguyễn TIến Dũng-51600017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -321,8 +321,12 @@
   <si>
     <t xml:space="preserve">Chương trình
 được đóng gói
-vào file Add2Number.jar
+thành file Add2Number.jar
 </t>
+  </si>
+  <si>
+    <t>Đã hoàn thành
+(foder:Add2Number)</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1332,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1466,156 +1470,9 @@
     <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="37" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="15" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="16" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="32" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="33" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="34" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="35" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1630,6 +1487,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="15" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="16" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="34" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="35" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="32" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="33" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1727,6 +1734,294 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1809750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="KhÃ´ng cÃ³ vÄn báº£n thay tháº¿ tá»± Äá»ng nÃ o."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9239251" y="8820151"/>
+          <a:ext cx="8105774" cy="1771649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>132352</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>933333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163050" y="5848350"/>
+          <a:ext cx="7980952" cy="933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>199686</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1600000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163050" y="5467350"/>
+          <a:ext cx="2714286" cy="1600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9524" y="19173825"/>
+          <a:ext cx="3971925" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45784</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>24433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4846384" y="22783799"/>
+          <a:ext cx="3707065" cy="3139109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>147693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22807668"/>
+          <a:ext cx="3971925" cy="3224157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28006</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="19135725"/>
+          <a:ext cx="3685606" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2294,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A47" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A57" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
@@ -2309,199 +2604,199 @@
     <col min="32" max="32" width="2.140625" customWidth="1"/>
     <col min="34" max="35" width="2.5703125" customWidth="1"/>
     <col min="36" max="36" width="10.42578125" customWidth="1"/>
-    <col min="37" max="37" width="25" style="96" customWidth="1"/>
+    <col min="37" max="37" width="25" style="53" customWidth="1"/>
     <col min="38" max="38" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="57" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="63" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="101" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="109" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="66" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="102"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="110"/>
     </row>
     <row r="3" spans="1:37" ht="15" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="73" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="70" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="81" t="s">
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="82"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="101"/>
       <c r="W3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="85">
+      <c r="Z3" s="104">
         <v>43009</v>
       </c>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="86"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="105"/>
       <c r="AD3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE3" s="5"/>
       <c r="AF3" s="6"/>
-      <c r="AG3" s="87" t="s">
+      <c r="AG3" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="102"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="110"/>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="84"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="103"/>
       <c r="W4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="91">
+      <c r="Z4" s="95">
         <v>43186</v>
       </c>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
       <c r="AD4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
-      <c r="AG4" s="93" t="s">
+      <c r="AG4" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="103"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="111"/>
     </row>
     <row r="5" spans="1:37" ht="15.75">
       <c r="A5" s="36">
@@ -2544,7 +2839,7 @@
       <c r="AH5" s="37"/>
       <c r="AI5" s="37"/>
       <c r="AJ5" s="37"/>
-      <c r="AK5" s="98" t="s">
+      <c r="AK5" s="91" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2585,7 +2880,7 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
       <c r="AJ6" s="38"/>
-      <c r="AK6" s="99"/>
+      <c r="AK6" s="92"/>
     </row>
     <row r="7" spans="1:37" ht="15.75">
       <c r="A7" s="38"/>
@@ -2626,7 +2921,7 @@
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
       <c r="AJ7" s="39"/>
-      <c r="AK7" s="99"/>
+      <c r="AK7" s="92"/>
     </row>
     <row r="8" spans="1:37" ht="15.75">
       <c r="A8" s="38"/>
@@ -2667,7 +2962,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
       <c r="AJ8" s="39"/>
-      <c r="AK8" s="99"/>
+      <c r="AK8" s="92"/>
     </row>
     <row r="9" spans="1:37" ht="15.75">
       <c r="A9" s="38"/>
@@ -2706,7 +3001,7 @@
       <c r="AH9" s="39"/>
       <c r="AI9" s="39"/>
       <c r="AJ9" s="39"/>
-      <c r="AK9" s="100"/>
+      <c r="AK9" s="93"/>
     </row>
     <row r="10" spans="1:37" ht="15.75">
       <c r="A10" s="36">
@@ -2749,7 +3044,7 @@
       <c r="AH10" s="37"/>
       <c r="AI10" s="37"/>
       <c r="AJ10" s="37"/>
-      <c r="AK10" s="98" t="s">
+      <c r="AK10" s="91" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2790,7 +3085,7 @@
       <c r="AH11" s="39"/>
       <c r="AI11" s="39"/>
       <c r="AJ11" s="39"/>
-      <c r="AK11" s="99"/>
+      <c r="AK11" s="92"/>
     </row>
     <row r="12" spans="1:37" ht="15.75">
       <c r="A12" s="38"/>
@@ -2833,7 +3128,7 @@
       <c r="AH12" s="39"/>
       <c r="AI12" s="39"/>
       <c r="AJ12" s="39"/>
-      <c r="AK12" s="99"/>
+      <c r="AK12" s="92"/>
     </row>
     <row r="13" spans="1:37" ht="15.75">
       <c r="A13" s="38"/>
@@ -2872,7 +3167,7 @@
       <c r="AH13" s="39"/>
       <c r="AI13" s="39"/>
       <c r="AJ13" s="39"/>
-      <c r="AK13" s="99"/>
+      <c r="AK13" s="92"/>
     </row>
     <row r="14" spans="1:37" ht="15.75">
       <c r="A14" s="38"/>
@@ -2915,7 +3210,7 @@
       <c r="AH14" s="39"/>
       <c r="AI14" s="39"/>
       <c r="AJ14" s="39"/>
-      <c r="AK14" s="99"/>
+      <c r="AK14" s="92"/>
     </row>
     <row r="15" spans="1:37" ht="15.75">
       <c r="A15" s="38"/>
@@ -2954,7 +3249,7 @@
       <c r="AH15" s="39"/>
       <c r="AI15" s="39"/>
       <c r="AJ15" s="39"/>
-      <c r="AK15" s="99"/>
+      <c r="AK15" s="92"/>
     </row>
     <row r="16" spans="1:37" ht="15.75">
       <c r="A16" s="38"/>
@@ -2993,7 +3288,7 @@
       <c r="AH16" s="39"/>
       <c r="AI16" s="39"/>
       <c r="AJ16" s="39"/>
-      <c r="AK16" s="100"/>
+      <c r="AK16" s="93"/>
     </row>
     <row r="17" spans="1:37" ht="15.75">
       <c r="A17" s="36">
@@ -3036,54 +3331,54 @@
       <c r="AH17" s="37"/>
       <c r="AI17" s="37"/>
       <c r="AJ17" s="37"/>
-      <c r="AK17" s="98" t="s">
+      <c r="AK17" s="91" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:37">
-      <c r="AK18" s="99"/>
+      <c r="AK18" s="92"/>
     </row>
     <row r="19" spans="1:37">
       <c r="B19" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="99"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="92"/>
     </row>
     <row r="20" spans="1:37">
       <c r="B20" s="35" t="s">
@@ -3092,11 +3387,11 @@
       <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="AK20" s="99"/>
+      <c r="AK20" s="92"/>
     </row>
     <row r="21" spans="1:37">
       <c r="B21" s="35"/>
-      <c r="AK21" s="99"/>
+      <c r="AK21" s="92"/>
     </row>
     <row r="22" spans="1:37">
       <c r="C22" s="47"/>
@@ -3133,7 +3428,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="47"/>
       <c r="AJ22" s="47"/>
-      <c r="AK22" s="100"/>
+      <c r="AK22" s="93"/>
     </row>
     <row r="23" spans="1:37" ht="15.75">
       <c r="A23" s="36">
@@ -3181,7 +3476,7 @@
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="AK25" s="97" t="s">
+      <c r="AK25" s="54" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3189,7 +3484,7 @@
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="AK26" s="97" t="s">
+      <c r="AK26" s="54" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3197,7 +3492,7 @@
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="AK27" s="97" t="s">
+      <c r="AK27" s="54" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3205,115 +3500,115 @@
       <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="AK28" s="97" t="s">
+      <c r="AK28" s="54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" ht="127.5" customHeight="1">
       <c r="C29" t="s">
         <v>39</v>
       </c>
-      <c r="AK29" s="97"/>
-    </row>
-    <row r="30" spans="1:37">
+      <c r="AK29" s="54"/>
+    </row>
+    <row r="30" spans="1:37" ht="39" customHeight="1">
       <c r="C30" t="s">
         <v>47</v>
       </c>
-      <c r="AK30" s="97" t="s">
+      <c r="AK30" s="54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
-      <c r="AK31" s="97"/>
+    <row r="31" spans="1:37" ht="139.5" customHeight="1">
+      <c r="AK31" s="54"/>
     </row>
     <row r="32" spans="1:37">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="90"/>
-      <c r="AD32" s="90"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="90"/>
-      <c r="AJ32" s="90"/>
-      <c r="AK32" s="104" t="s">
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="94"/>
+      <c r="AK32" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:37">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="90"/>
-      <c r="AB33" s="90"/>
-      <c r="AC33" s="90"/>
-      <c r="AD33" s="90"/>
-      <c r="AE33" s="90"/>
-      <c r="AF33" s="90"/>
-      <c r="AG33" s="90"/>
-      <c r="AH33" s="90"/>
-      <c r="AI33" s="90"/>
-      <c r="AJ33" s="90"/>
-      <c r="AK33" s="105"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="94"/>
+      <c r="AJ33" s="94"/>
+      <c r="AK33" s="56"/>
     </row>
     <row r="34" spans="2:37">
-      <c r="AK34" s="97"/>
+      <c r="AK34" s="54"/>
     </row>
     <row r="35" spans="2:37">
       <c r="B35" t="s">
         <v>46</v>
       </c>
-      <c r="AK35" s="97" t="s">
+      <c r="AK35" s="54" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3321,28 +3616,29 @@
       <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="AK36" s="97" t="s">
+      <c r="AK36" s="54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:37">
+    <row r="37" spans="2:37" ht="16.5" customHeight="1">
       <c r="B37" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>59</v>
       </c>
-      <c r="AK37" s="97" t="s">
+      <c r="AK37" s="62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:37">
+    <row r="38" spans="2:37" ht="146.25" customHeight="1">
       <c r="B38" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>55</v>
       </c>
+      <c r="AK38"/>
     </row>
     <row r="39" spans="2:37">
       <c r="C39" s="51" t="s">
@@ -3394,7 +3690,7 @@
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="43"/>
-      <c r="AK47" s="110" t="s">
+      <c r="AK47" s="61" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3482,90 +3778,90 @@
       <c r="C55" t="s">
         <v>49</v>
       </c>
-      <c r="AK55" s="106" t="s">
+      <c r="AK55" s="57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="105">
+    <row r="56" spans="1:37" ht="60">
       <c r="B56" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="90" t="s">
+      <c r="C56" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
-      <c r="K56" s="90"/>
-      <c r="L56" s="90"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="90"/>
-      <c r="O56" s="90"/>
-      <c r="P56" s="90"/>
-      <c r="Q56" s="90"/>
-      <c r="R56" s="90"/>
-      <c r="S56" s="90"/>
-      <c r="T56" s="90"/>
-      <c r="U56" s="90"/>
-      <c r="V56" s="90"/>
-      <c r="W56" s="90"/>
-      <c r="X56" s="90"/>
-      <c r="Y56" s="90"/>
-      <c r="Z56" s="90"/>
-      <c r="AA56" s="90"/>
-      <c r="AB56" s="90"/>
-      <c r="AC56" s="90"/>
-      <c r="AD56" s="90"/>
-      <c r="AE56" s="90"/>
-      <c r="AF56" s="90"/>
-      <c r="AG56" s="90"/>
-      <c r="AH56" s="90"/>
-      <c r="AI56" s="90"/>
-      <c r="AJ56" s="90"/>
-      <c r="AK56" s="106" t="s">
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="94"/>
+      <c r="T56" s="94"/>
+      <c r="U56" s="94"/>
+      <c r="V56" s="94"/>
+      <c r="W56" s="94"/>
+      <c r="X56" s="94"/>
+      <c r="Y56" s="94"/>
+      <c r="Z56" s="94"/>
+      <c r="AA56" s="94"/>
+      <c r="AB56" s="94"/>
+      <c r="AC56" s="94"/>
+      <c r="AD56" s="94"/>
+      <c r="AE56" s="94"/>
+      <c r="AF56" s="94"/>
+      <c r="AG56" s="94"/>
+      <c r="AH56" s="94"/>
+      <c r="AI56" s="94"/>
+      <c r="AJ56" s="94"/>
+      <c r="AK56" s="57" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:37">
       <c r="B57" s="35"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="90"/>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="90"/>
-      <c r="U57" s="90"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
-      <c r="X57" s="90"/>
-      <c r="Y57" s="90"/>
-      <c r="Z57" s="90"/>
-      <c r="AA57" s="90"/>
-      <c r="AB57" s="90"/>
-      <c r="AC57" s="90"/>
-      <c r="AD57" s="90"/>
-      <c r="AE57" s="90"/>
-      <c r="AF57" s="90"/>
-      <c r="AG57" s="90"/>
-      <c r="AH57" s="90"/>
-      <c r="AI57" s="90"/>
-      <c r="AJ57" s="90"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="94"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="94"/>
+      <c r="T57" s="94"/>
+      <c r="U57" s="94"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
+      <c r="X57" s="94"/>
+      <c r="Y57" s="94"/>
+      <c r="Z57" s="94"/>
+      <c r="AA57" s="94"/>
+      <c r="AB57" s="94"/>
+      <c r="AC57" s="94"/>
+      <c r="AD57" s="94"/>
+      <c r="AE57" s="94"/>
+      <c r="AF57" s="94"/>
+      <c r="AG57" s="94"/>
+      <c r="AH57" s="94"/>
+      <c r="AI57" s="94"/>
+      <c r="AJ57" s="94"/>
     </row>
     <row r="58" spans="1:37">
       <c r="B58" s="35"/>
@@ -3643,15 +3939,15 @@
       <c r="AI59" s="49"/>
       <c r="AJ59" s="49"/>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" ht="30">
       <c r="B60" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C60" t="s">
         <v>51</v>
       </c>
-      <c r="AK60" s="96" t="s">
-        <v>72</v>
+      <c r="AK60" s="57" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:37">
@@ -3666,313 +3962,311 @@
       </c>
     </row>
     <row r="65" spans="37:37">
-      <c r="AK65" s="107"/>
+      <c r="AK65" s="58"/>
     </row>
     <row r="66" spans="37:37">
-      <c r="AK66" s="109"/>
+      <c r="AK66" s="60"/>
     </row>
     <row r="67" spans="37:37">
-      <c r="AK67" s="109"/>
+      <c r="AK67" s="60"/>
     </row>
     <row r="68" spans="37:37">
-      <c r="AK68" s="109"/>
+      <c r="AK68" s="60"/>
     </row>
     <row r="69" spans="37:37">
-      <c r="AK69" s="109"/>
+      <c r="AK69" s="60"/>
     </row>
     <row r="70" spans="37:37">
-      <c r="AK70" s="109"/>
+      <c r="AK70" s="60"/>
     </row>
     <row r="71" spans="37:37">
-      <c r="AK71" s="109"/>
+      <c r="AK71" s="60"/>
     </row>
     <row r="72" spans="37:37">
-      <c r="AK72" s="109"/>
+      <c r="AK72" s="60"/>
     </row>
     <row r="73" spans="37:37">
-      <c r="AK73" s="109"/>
+      <c r="AK73" s="60"/>
     </row>
     <row r="74" spans="37:37">
-      <c r="AK74" s="109"/>
+      <c r="AK74" s="60"/>
     </row>
     <row r="75" spans="37:37">
-      <c r="AK75" s="109"/>
+      <c r="AK75" s="60"/>
     </row>
     <row r="76" spans="37:37">
-      <c r="AK76" s="109"/>
+      <c r="AK76" s="60"/>
     </row>
     <row r="77" spans="37:37">
-      <c r="AK77" s="109"/>
+      <c r="AK77" s="60"/>
     </row>
     <row r="78" spans="37:37">
-      <c r="AK78" s="109"/>
+      <c r="AK78" s="60"/>
     </row>
     <row r="79" spans="37:37">
-      <c r="AK79" s="109"/>
+      <c r="AK79" s="60"/>
     </row>
     <row r="80" spans="37:37">
-      <c r="AK80" s="109"/>
+      <c r="AK80" s="60"/>
     </row>
     <row r="81" spans="37:37">
-      <c r="AK81" s="109"/>
+      <c r="AK81" s="60"/>
     </row>
     <row r="82" spans="37:37">
-      <c r="AK82" s="109"/>
+      <c r="AK82" s="60"/>
     </row>
     <row r="83" spans="37:37">
-      <c r="AK83" s="109"/>
+      <c r="AK83" s="60"/>
     </row>
     <row r="84" spans="37:37">
-      <c r="AK84" s="109"/>
+      <c r="AK84" s="60"/>
     </row>
     <row r="85" spans="37:37">
-      <c r="AK85" s="109"/>
+      <c r="AK85" s="60"/>
     </row>
     <row r="86" spans="37:37">
-      <c r="AK86" s="109"/>
+      <c r="AK86" s="60"/>
     </row>
     <row r="87" spans="37:37">
-      <c r="AK87" s="109"/>
+      <c r="AK87" s="60"/>
     </row>
     <row r="88" spans="37:37">
-      <c r="AK88" s="109"/>
+      <c r="AK88" s="60"/>
     </row>
     <row r="89" spans="37:37">
-      <c r="AK89" s="109"/>
+      <c r="AK89" s="60"/>
     </row>
     <row r="90" spans="37:37">
-      <c r="AK90" s="109"/>
+      <c r="AK90" s="60"/>
     </row>
     <row r="91" spans="37:37">
-      <c r="AK91" s="109"/>
+      <c r="AK91" s="60"/>
     </row>
     <row r="92" spans="37:37">
-      <c r="AK92" s="109"/>
+      <c r="AK92" s="60"/>
     </row>
     <row r="93" spans="37:37">
-      <c r="AK93" s="109"/>
+      <c r="AK93" s="60"/>
     </row>
     <row r="94" spans="37:37">
-      <c r="AK94" s="109"/>
+      <c r="AK94" s="60"/>
     </row>
     <row r="95" spans="37:37">
-      <c r="AK95" s="109"/>
+      <c r="AK95" s="60"/>
     </row>
     <row r="96" spans="37:37">
-      <c r="AK96" s="109"/>
+      <c r="AK96" s="60"/>
     </row>
     <row r="97" spans="37:37">
-      <c r="AK97" s="109"/>
+      <c r="AK97" s="60"/>
     </row>
     <row r="98" spans="37:37">
-      <c r="AK98" s="109"/>
+      <c r="AK98" s="60"/>
     </row>
     <row r="99" spans="37:37">
-      <c r="AK99" s="109"/>
+      <c r="AK99" s="60"/>
     </row>
     <row r="100" spans="37:37">
-      <c r="AK100" s="109"/>
+      <c r="AK100" s="60"/>
     </row>
     <row r="101" spans="37:37">
-      <c r="AK101" s="109"/>
+      <c r="AK101" s="60"/>
     </row>
     <row r="102" spans="37:37">
-      <c r="AK102" s="109"/>
+      <c r="AK102" s="60"/>
     </row>
     <row r="103" spans="37:37">
-      <c r="AK103" s="109"/>
+      <c r="AK103" s="60"/>
     </row>
     <row r="104" spans="37:37">
-      <c r="AK104" s="109"/>
+      <c r="AK104" s="60"/>
     </row>
     <row r="105" spans="37:37">
-      <c r="AK105" s="109"/>
+      <c r="AK105" s="60"/>
     </row>
     <row r="106" spans="37:37">
-      <c r="AK106" s="109"/>
+      <c r="AK106" s="60"/>
     </row>
     <row r="107" spans="37:37">
-      <c r="AK107" s="109"/>
+      <c r="AK107" s="60"/>
     </row>
     <row r="108" spans="37:37">
-      <c r="AK108" s="109"/>
+      <c r="AK108" s="60"/>
     </row>
     <row r="109" spans="37:37">
-      <c r="AK109" s="109"/>
+      <c r="AK109" s="60"/>
     </row>
     <row r="110" spans="37:37">
-      <c r="AK110" s="109"/>
+      <c r="AK110" s="60"/>
     </row>
     <row r="111" spans="37:37">
-      <c r="AK111" s="109"/>
+      <c r="AK111" s="60"/>
     </row>
     <row r="112" spans="37:37">
-      <c r="AK112" s="109"/>
+      <c r="AK112" s="60"/>
     </row>
     <row r="113" spans="37:37">
-      <c r="AK113" s="109"/>
+      <c r="AK113" s="60"/>
     </row>
     <row r="114" spans="37:37">
-      <c r="AK114" s="109"/>
+      <c r="AK114" s="60"/>
     </row>
     <row r="115" spans="37:37">
-      <c r="AK115" s="109"/>
+      <c r="AK115" s="60"/>
     </row>
     <row r="116" spans="37:37">
-      <c r="AK116" s="109"/>
+      <c r="AK116" s="60"/>
     </row>
     <row r="117" spans="37:37">
-      <c r="AK117" s="109"/>
+      <c r="AK117" s="60"/>
     </row>
     <row r="118" spans="37:37">
-      <c r="AK118" s="109"/>
+      <c r="AK118" s="60"/>
     </row>
     <row r="119" spans="37:37">
-      <c r="AK119" s="109"/>
+      <c r="AK119" s="60"/>
     </row>
     <row r="120" spans="37:37">
-      <c r="AK120" s="109"/>
+      <c r="AK120" s="60"/>
     </row>
     <row r="121" spans="37:37">
-      <c r="AK121" s="109"/>
+      <c r="AK121" s="60"/>
     </row>
     <row r="122" spans="37:37">
-      <c r="AK122" s="109"/>
+      <c r="AK122" s="60"/>
     </row>
     <row r="123" spans="37:37">
-      <c r="AK123" s="109"/>
+      <c r="AK123" s="60"/>
     </row>
     <row r="124" spans="37:37">
-      <c r="AK124" s="109"/>
+      <c r="AK124" s="60"/>
     </row>
     <row r="125" spans="37:37">
-      <c r="AK125" s="109"/>
+      <c r="AK125" s="60"/>
     </row>
     <row r="126" spans="37:37">
-      <c r="AK126" s="109"/>
+      <c r="AK126" s="60"/>
     </row>
     <row r="127" spans="37:37">
-      <c r="AK127" s="109"/>
+      <c r="AK127" s="60"/>
     </row>
     <row r="128" spans="37:37">
-      <c r="AK128" s="109"/>
+      <c r="AK128" s="60"/>
     </row>
     <row r="129" spans="37:37">
-      <c r="AK129" s="109"/>
+      <c r="AK129" s="60"/>
     </row>
     <row r="130" spans="37:37">
-      <c r="AK130" s="109"/>
+      <c r="AK130" s="60"/>
     </row>
     <row r="131" spans="37:37">
-      <c r="AK131" s="109"/>
+      <c r="AK131" s="60"/>
     </row>
     <row r="132" spans="37:37">
-      <c r="AK132" s="109"/>
+      <c r="AK132" s="60"/>
     </row>
     <row r="133" spans="37:37">
-      <c r="AK133" s="109"/>
+      <c r="AK133" s="60"/>
     </row>
     <row r="134" spans="37:37">
-      <c r="AK134" s="109"/>
+      <c r="AK134" s="60"/>
     </row>
     <row r="135" spans="37:37">
-      <c r="AK135" s="109"/>
+      <c r="AK135" s="60"/>
     </row>
     <row r="136" spans="37:37">
-      <c r="AK136" s="109"/>
+      <c r="AK136" s="60"/>
     </row>
     <row r="137" spans="37:37">
-      <c r="AK137" s="109"/>
+      <c r="AK137" s="60"/>
     </row>
     <row r="138" spans="37:37">
-      <c r="AK138" s="109"/>
+      <c r="AK138" s="60"/>
     </row>
     <row r="139" spans="37:37">
-      <c r="AK139" s="109"/>
+      <c r="AK139" s="60"/>
     </row>
     <row r="140" spans="37:37">
-      <c r="AK140" s="109"/>
+      <c r="AK140" s="60"/>
     </row>
     <row r="141" spans="37:37">
-      <c r="AK141" s="109"/>
+      <c r="AK141" s="60"/>
     </row>
     <row r="142" spans="37:37">
-      <c r="AK142" s="109"/>
+      <c r="AK142" s="60"/>
     </row>
     <row r="143" spans="37:37">
-      <c r="AK143" s="109"/>
+      <c r="AK143" s="60"/>
     </row>
     <row r="144" spans="37:37">
-      <c r="AK144" s="109"/>
+      <c r="AK144" s="60"/>
     </row>
     <row r="145" spans="37:37">
-      <c r="AK145" s="109"/>
+      <c r="AK145" s="60"/>
     </row>
     <row r="146" spans="37:37">
-      <c r="AK146" s="109"/>
+      <c r="AK146" s="60"/>
     </row>
     <row r="147" spans="37:37">
-      <c r="AK147" s="109"/>
+      <c r="AK147" s="60"/>
     </row>
     <row r="148" spans="37:37">
-      <c r="AK148" s="109"/>
+      <c r="AK148" s="60"/>
     </row>
     <row r="149" spans="37:37">
-      <c r="AK149" s="109"/>
+      <c r="AK149" s="60"/>
     </row>
     <row r="150" spans="37:37">
-      <c r="AK150" s="109"/>
+      <c r="AK150" s="60"/>
     </row>
     <row r="151" spans="37:37">
-      <c r="AK151" s="109"/>
+      <c r="AK151" s="60"/>
     </row>
     <row r="152" spans="37:37">
-      <c r="AK152" s="109"/>
+      <c r="AK152" s="60"/>
     </row>
     <row r="153" spans="37:37">
-      <c r="AK153" s="109"/>
+      <c r="AK153" s="60"/>
     </row>
     <row r="154" spans="37:37">
-      <c r="AK154" s="109"/>
+      <c r="AK154" s="60"/>
     </row>
     <row r="155" spans="37:37">
-      <c r="AK155" s="109"/>
+      <c r="AK155" s="60"/>
     </row>
     <row r="156" spans="37:37">
-      <c r="AK156" s="109"/>
+      <c r="AK156" s="60"/>
     </row>
     <row r="157" spans="37:37">
-      <c r="AK157" s="109"/>
+      <c r="AK157" s="60"/>
     </row>
     <row r="158" spans="37:37">
-      <c r="AK158" s="109"/>
+      <c r="AK158" s="60"/>
     </row>
     <row r="159" spans="37:37">
-      <c r="AK159" s="109"/>
+      <c r="AK159" s="60"/>
     </row>
     <row r="160" spans="37:37">
-      <c r="AK160" s="109"/>
+      <c r="AK160" s="60"/>
     </row>
     <row r="161" spans="37:37">
-      <c r="AK161" s="109"/>
+      <c r="AK161" s="60"/>
     </row>
     <row r="162" spans="37:37">
-      <c r="AK162" s="109"/>
+      <c r="AK162" s="60"/>
     </row>
     <row r="163" spans="37:37">
-      <c r="AK163" s="109"/>
+      <c r="AK163" s="60"/>
     </row>
     <row r="164" spans="37:37">
-      <c r="AK164" s="109"/>
+      <c r="AK164" s="60"/>
     </row>
     <row r="165" spans="37:37">
-      <c r="AK165" s="108"/>
+      <c r="AK165" s="59"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="AK1:AK4"/>
-    <mergeCell ref="AK10:AK16"/>
     <mergeCell ref="AK17:AK22"/>
     <mergeCell ref="AK5:AK9"/>
     <mergeCell ref="C56:AJ57"/>
@@ -3980,6 +4274,11 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="C19:AJ19"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AK1:AK4"/>
+    <mergeCell ref="AK10:AK16"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:V2"/>
     <mergeCell ref="W1:AJ1"/>
@@ -3987,15 +4286,13 @@
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:H4"/>
     <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:V4"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AG3:AJ3"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.39370078740157483" bottom="0.31496062992125984" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A&amp;R&amp;13&amp;KFF0000Kéo sang phải để xem các công việc đã hoàn thành</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/training/Nguyễn TIến Dũng-51600017/Các yêu cầu của khách hàng đã hoàn thành.xlsx
+++ b/training/Nguyễn TIến Dũng-51600017/Các yêu cầu của khách hàng đã hoàn thành.xlsx
@@ -16,14 +16,14 @@
     <sheet name="High level requirement" sheetId="33" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'High level requirement'!$A$1:$AJ$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'High level requirement'!$A$1:$AJ$77</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Project đã làm (dùng Eclipse hoặc NetBean hoặc IDE mà bạn thuần thục) được lưu trên Github.</t>
   </si>
   <si>
-    <t>sum  123  789</t>
-  </si>
-  <si>
     <t>Không push lên Github file thừa (nếu bỏ đi mà chương trình vẫn chạy), chỉ nộp lại mã nguồn và cái file của Project theo IDE.</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     </r>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>Đã hoàn thành</t>
   </si>
   <si>
@@ -319,14 +313,12 @@
 bằng NetBean </t>
   </si>
   <si>
-    <t xml:space="preserve">Chương trình
+    <t>Đã hoàn thành(xem file : MyBigNumber.java)</t>
+  </si>
+  <si>
+    <t>Chương trình
 được đóng gói
-thành file Add2Number.jar
-</t>
-  </si>
-  <si>
-    <t>Đã hoàn thành
-(foder:Add2Number)</t>
+thành file Add2Number.jar</t>
   </si>
 </sst>
 </file>
@@ -338,7 +330,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -620,6 +612,18 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="27">
@@ -780,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1231,55 +1235,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1332,7 +1293,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1456,9 +1417,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1470,27 +1428,129 @@
     <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="37" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="34" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="35" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="32" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="33" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1539,105 +1599,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="16" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="34" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="35" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="32" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="33" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1742,13 +1703,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>1809750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1797,13 +1758,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>132352</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>208552</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>933333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1835,13 +1796,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>199686</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>9186</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1600000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1873,13 +1834,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1911,14 +1872,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>45784</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>24433</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1935,8 +1896,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4846384" y="22783799"/>
-          <a:ext cx="3707065" cy="3139109"/>
+          <a:off x="4836859" y="26193749"/>
+          <a:ext cx="3707065" cy="3324226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1949,13 +1910,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>147693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1987,13 +1948,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>28006</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2017,6 +1978,137 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3040380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181099" y="7153275"/>
+          <a:ext cx="4848225" cy="2773680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>84727</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1457208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="11010900"/>
+          <a:ext cx="7980952" cy="933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1800224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="KhÃ´ng cÃ³ vÄn báº£n thay tháº¿ tá»± Äá»ng nÃ o."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="333375" y="13449300"/>
+          <a:ext cx="8105774" cy="1771649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2424,8 +2516,8 @@
       <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>61</v>
+      <c r="E5" s="51" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.25">
@@ -2433,16 +2525,16 @@
         <v>43449</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2587,216 +2679,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK165"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A57" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T86" sqref="T86"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="23" max="23" width="1.85546875" customWidth="1"/>
     <col min="24" max="24" width="2.5703125" customWidth="1"/>
     <col min="25" max="25" width="2.140625" customWidth="1"/>
     <col min="26" max="26" width="1.42578125" customWidth="1"/>
     <col min="27" max="27" width="3.28515625" customWidth="1"/>
+    <col min="28" max="28" width="3.85546875" customWidth="1"/>
     <col min="29" max="29" width="2.5703125" customWidth="1"/>
+    <col min="30" max="31" width="3.85546875" customWidth="1"/>
     <col min="32" max="32" width="2.140625" customWidth="1"/>
+    <col min="33" max="33" width="3.85546875" customWidth="1"/>
     <col min="34" max="35" width="2.5703125" customWidth="1"/>
-    <col min="36" max="36" width="10.42578125" customWidth="1"/>
-    <col min="37" max="37" width="25" style="53" customWidth="1"/>
+    <col min="36" max="36" width="2.140625" customWidth="1"/>
+    <col min="37" max="37" width="23.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1">
-      <c r="A1" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="67" t="s">
+      <c r="A1" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="73" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="109" t="s">
-        <v>71</v>
-      </c>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="93"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="76" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="110"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="93"/>
     </row>
     <row r="3" spans="1:37" ht="15" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="83" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="100" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="101"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="85"/>
       <c r="W3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="104">
+      <c r="Z3" s="88">
         <v>43009</v>
       </c>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="105"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="89"/>
       <c r="AD3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE3" s="5"/>
       <c r="AF3" s="6"/>
-      <c r="AG3" s="106" t="s">
+      <c r="AG3" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="110"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="93"/>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="103"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="87"/>
       <c r="W4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="95">
+      <c r="Z4" s="78">
         <v>43186</v>
       </c>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="79"/>
       <c r="AD4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
-      <c r="AG4" s="97" t="s">
+      <c r="AG4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="111"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="93"/>
     </row>
     <row r="5" spans="1:37" ht="15.75">
       <c r="A5" s="36">
@@ -2839,9 +2934,7 @@
       <c r="AH5" s="37"/>
       <c r="AI5" s="37"/>
       <c r="AJ5" s="37"/>
-      <c r="AK5" s="91" t="s">
-        <v>72</v>
-      </c>
+      <c r="AK5" s="76"/>
     </row>
     <row r="6" spans="1:37" ht="15.75">
       <c r="A6" s="38"/>
@@ -2880,12 +2973,12 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
       <c r="AJ6" s="38"/>
-      <c r="AK6" s="92"/>
+      <c r="AK6" s="76"/>
     </row>
     <row r="7" spans="1:37" ht="15.75">
       <c r="A7" s="38"/>
       <c r="B7" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -2921,7 +3014,7 @@
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
       <c r="AJ7" s="39"/>
-      <c r="AK7" s="92"/>
+      <c r="AK7" s="76"/>
     </row>
     <row r="8" spans="1:37" ht="15.75">
       <c r="A8" s="38"/>
@@ -2962,7 +3055,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
       <c r="AJ8" s="39"/>
-      <c r="AK8" s="92"/>
+      <c r="AK8" s="76"/>
     </row>
     <row r="9" spans="1:37" ht="15.75">
       <c r="A9" s="38"/>
@@ -3001,52 +3094,48 @@
       <c r="AH9" s="39"/>
       <c r="AI9" s="39"/>
       <c r="AJ9" s="39"/>
-      <c r="AK9" s="93"/>
+      <c r="AK9" s="76"/>
     </row>
     <row r="10" spans="1:37" ht="15.75">
-      <c r="A10" s="36">
-        <v>2</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="91" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="60" t="s">
         <v>72</v>
       </c>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="76"/>
     </row>
     <row r="11" spans="1:37" ht="15.75">
       <c r="A11" s="38"/>
@@ -3085,16 +3174,12 @@
       <c r="AH11" s="39"/>
       <c r="AI11" s="39"/>
       <c r="AJ11" s="39"/>
-      <c r="AK11" s="92"/>
+      <c r="AK11" s="76"/>
     </row>
     <row r="12" spans="1:37" ht="15.75">
       <c r="A12" s="38"/>
-      <c r="B12" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>27</v>
-      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -3128,55 +3213,55 @@
       <c r="AH12" s="39"/>
       <c r="AI12" s="39"/>
       <c r="AJ12" s="39"/>
-      <c r="AK12" s="92"/>
+      <c r="AK12" s="76"/>
     </row>
     <row r="13" spans="1:37" ht="15.75">
-      <c r="A13" s="38"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="92"/>
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="76"/>
     </row>
     <row r="14" spans="1:37" ht="15.75">
       <c r="A14" s="38"/>
-      <c r="B14" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -3210,12 +3295,16 @@
       <c r="AH14" s="39"/>
       <c r="AI14" s="39"/>
       <c r="AJ14" s="39"/>
-      <c r="AK14" s="92"/>
+      <c r="AK14" s="76"/>
     </row>
     <row r="15" spans="1:37" ht="15.75">
       <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
+      <c r="B15" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -3249,12 +3338,12 @@
       <c r="AH15" s="39"/>
       <c r="AI15" s="39"/>
       <c r="AJ15" s="39"/>
-      <c r="AK15" s="92"/>
+      <c r="AK15" s="76"/>
     </row>
     <row r="16" spans="1:37" ht="15.75">
       <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -3288,1009 +3377,1163 @@
       <c r="AH16" s="39"/>
       <c r="AI16" s="39"/>
       <c r="AJ16" s="39"/>
-      <c r="AK16" s="93"/>
+      <c r="AK16" s="76"/>
     </row>
     <row r="17" spans="1:37" ht="15.75">
-      <c r="A17" s="36">
+      <c r="A17" s="38"/>
+      <c r="B17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="76"/>
+    </row>
+    <row r="18" spans="1:37" ht="15.75">
+      <c r="A18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="76"/>
+    </row>
+    <row r="19" spans="1:37" ht="15.75">
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="76"/>
+    </row>
+    <row r="20" spans="1:37" ht="15.75">
+      <c r="A20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="76"/>
+    </row>
+    <row r="21" spans="1:37" ht="15.75">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="76"/>
+    </row>
+    <row r="22" spans="1:37" ht="15.75">
+      <c r="A22" s="36">
         <v>3</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="91" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37">
-      <c r="AK18" s="92"/>
-    </row>
-    <row r="19" spans="1:37">
-      <c r="B19" s="35" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="76"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="AK23" s="76"/>
+    </row>
+    <row r="24" spans="1:37" ht="15" customHeight="1">
+      <c r="B24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C24" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="94"/>
-      <c r="AJ19" s="94"/>
-      <c r="AK19" s="92"/>
-    </row>
-    <row r="20" spans="1:37">
-      <c r="B20" s="35" t="s">
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="83"/>
+      <c r="AK24" s="76"/>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="B25" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="AK20" s="92"/>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="B21" s="35"/>
-      <c r="AK21" s="92"/>
-    </row>
-    <row r="22" spans="1:37">
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="93"/>
-    </row>
-    <row r="23" spans="1:37" ht="15.75">
-      <c r="A23" s="36">
+      <c r="AK25" s="76"/>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="B26" s="35"/>
+      <c r="AK26" s="76"/>
+    </row>
+    <row r="27" spans="1:37" ht="15.75">
+      <c r="B27" s="35"/>
+      <c r="K27" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="AK27" s="76"/>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="B28" s="35"/>
+      <c r="AK28" s="76"/>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="76"/>
+    </row>
+    <row r="30" spans="1:37" ht="15.75">
+      <c r="A30" s="36">
         <v>4</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-    </row>
-    <row r="25" spans="1:37">
-      <c r="B25" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="AK25" s="54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37">
-      <c r="C26" t="s">
+      <c r="AK32" s="55"/>
+    </row>
+    <row r="33" spans="2:37" ht="15.75">
+      <c r="C33" t="s">
         <v>37</v>
       </c>
-      <c r="AK26" s="54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37">
-      <c r="C27" t="s">
+      <c r="X33" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="60"/>
+      <c r="AK33" s="55"/>
+    </row>
+    <row r="34" spans="2:37" ht="15.75">
+      <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="AK27" s="54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37">
-      <c r="C28" t="s">
+      <c r="X34" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="60"/>
+      <c r="AK34" s="55"/>
+    </row>
+    <row r="35" spans="2:37" ht="15.75">
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="AK28" s="54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" ht="127.5" customHeight="1">
-      <c r="C29" t="s">
+      <c r="X35" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="60"/>
+      <c r="AK35" s="55"/>
+    </row>
+    <row r="36" spans="2:37" ht="244.5" customHeight="1">
+      <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="AK29" s="54"/>
-    </row>
-    <row r="30" spans="1:37" ht="39" customHeight="1">
-      <c r="C30" t="s">
+      <c r="AK36" s="55"/>
+    </row>
+    <row r="37" spans="2:37" ht="39" customHeight="1">
+      <c r="C37" t="s">
         <v>47</v>
       </c>
-      <c r="AK30" s="54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" ht="139.5" customHeight="1">
-      <c r="AK31" s="54"/>
-    </row>
-    <row r="32" spans="1:37">
-      <c r="B32" s="94" t="s">
+      <c r="AA37" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="54"/>
+      <c r="AK37" s="56"/>
+    </row>
+    <row r="38" spans="2:37" ht="139.5" customHeight="1">
+      <c r="AK38" s="55"/>
+    </row>
+    <row r="39" spans="2:37">
+      <c r="B39" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="94"/>
-      <c r="AJ32" s="94"/>
-      <c r="AK32" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:37">
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="94"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="94"/>
-      <c r="AH33" s="94"/>
-      <c r="AI33" s="94"/>
-      <c r="AJ33" s="94"/>
-      <c r="AK33" s="56"/>
-    </row>
-    <row r="34" spans="2:37">
-      <c r="AK34" s="54"/>
-    </row>
-    <row r="35" spans="2:37">
-      <c r="B35" t="s">
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="77"/>
+      <c r="Y39" s="77"/>
+      <c r="Z39" s="77"/>
+      <c r="AA39" s="77"/>
+      <c r="AB39" s="77"/>
+      <c r="AC39" s="77"/>
+      <c r="AD39" s="77"/>
+      <c r="AE39" s="77"/>
+      <c r="AF39" s="77"/>
+      <c r="AG39" s="77"/>
+      <c r="AH39" s="77"/>
+      <c r="AI39" s="77"/>
+      <c r="AJ39" s="77"/>
+      <c r="AK39" s="57"/>
+    </row>
+    <row r="40" spans="2:37">
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="77"/>
+      <c r="AB40" s="77"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="77"/>
+      <c r="AE40" s="77"/>
+      <c r="AF40" s="77"/>
+      <c r="AG40" s="77"/>
+      <c r="AH40" s="77"/>
+      <c r="AI40" s="77"/>
+      <c r="AJ40" s="77"/>
+      <c r="AK40" s="57"/>
+    </row>
+    <row r="41" spans="2:37">
+      <c r="AK41" s="55"/>
+    </row>
+    <row r="42" spans="2:37">
+      <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="AK35" s="54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="2:37">
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK36" s="54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="2:37" ht="16.5" customHeight="1">
-      <c r="B37" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK37" s="62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="2:37" ht="146.25" customHeight="1">
-      <c r="B38" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK38"/>
-    </row>
-    <row r="39" spans="2:37">
-      <c r="C39" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="2:37">
-      <c r="C40" s="48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="2:37">
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
+      <c r="AK42" s="55"/>
     </row>
     <row r="43" spans="2:37">
       <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK43" s="55"/>
+    </row>
+    <row r="44" spans="2:37" ht="16.5" customHeight="1">
+      <c r="B44" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="V44" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="W44" s="60"/>
+      <c r="X44" s="60"/>
+      <c r="Y44" s="60"/>
+      <c r="Z44" s="60"/>
+      <c r="AA44" s="60"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="60"/>
+      <c r="AE44" s="60"/>
+      <c r="AF44" s="60"/>
+      <c r="AK44" s="58"/>
+    </row>
+    <row r="45" spans="2:37" ht="171" customHeight="1">
+      <c r="B45" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:37">
+      <c r="C46" s="50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="2:37">
+      <c r="C47" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:37">
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="47"/>
+    </row>
+    <row r="51" spans="1:37">
+      <c r="C51" s="47"/>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
+    </row>
+    <row r="53" spans="1:37">
+      <c r="C53" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+    </row>
+    <row r="54" spans="1:37">
+      <c r="C54" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="48"/>
-    </row>
-    <row r="44" spans="2:37">
-      <c r="C44" s="48"/>
-    </row>
-    <row r="45" spans="2:37">
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-    </row>
-    <row r="46" spans="2:37">
-      <c r="C46" s="35" t="s">
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
+      <c r="AK54" s="57"/>
+    </row>
+    <row r="55" spans="1:37">
+      <c r="C55" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="44"/>
+    </row>
+    <row r="56" spans="1:37">
+      <c r="C56" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="44"/>
+    </row>
+    <row r="57" spans="1:37">
+      <c r="C57" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="44"/>
+    </row>
+    <row r="59" spans="1:37" ht="15.75">
+      <c r="A59" s="36">
+        <v>5</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
+    </row>
+    <row r="61" spans="1:37" ht="15.75" thickBot="1">
+      <c r="B61" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="46"/>
+    </row>
+    <row r="62" spans="1:37" ht="73.5" customHeight="1">
+      <c r="B62" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-    </row>
-    <row r="47" spans="2:37">
-      <c r="C47" s="35" t="s">
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC62" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD62" s="62"/>
+      <c r="AE62" s="62"/>
+      <c r="AK62" s="59"/>
+    </row>
+    <row r="63" spans="1:37">
+      <c r="B63" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
-      <c r="AK47" s="61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="2:37">
-      <c r="C48" s="35" t="s">
+      <c r="C63" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="77"/>
+      <c r="Q63" s="77"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="77"/>
+      <c r="T63" s="77"/>
+      <c r="U63" s="77"/>
+      <c r="V63" s="77"/>
+      <c r="W63" s="77"/>
+      <c r="X63" s="77"/>
+      <c r="Y63" s="77"/>
+      <c r="Z63" s="77"/>
+      <c r="AA63" s="77"/>
+      <c r="AB63" s="77"/>
+      <c r="AC63" s="77"/>
+      <c r="AD63" s="77"/>
+      <c r="AE63" s="77"/>
+      <c r="AF63" s="77"/>
+      <c r="AG63" s="77"/>
+      <c r="AH63" s="77"/>
+      <c r="AI63" s="77"/>
+      <c r="AJ63" s="77"/>
+      <c r="AK63" s="59"/>
+    </row>
+    <row r="64" spans="1:37">
+      <c r="B64" s="35"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
+      <c r="O64" s="77"/>
+      <c r="P64" s="77"/>
+      <c r="Q64" s="77"/>
+      <c r="R64" s="77"/>
+      <c r="S64" s="77"/>
+      <c r="T64" s="77"/>
+      <c r="U64" s="77"/>
+      <c r="V64" s="77"/>
+      <c r="W64" s="77"/>
+      <c r="X64" s="77"/>
+      <c r="Y64" s="77"/>
+      <c r="Z64" s="77"/>
+      <c r="AA64" s="77"/>
+      <c r="AB64" s="77"/>
+      <c r="AC64" s="77"/>
+      <c r="AD64" s="77"/>
+      <c r="AE64" s="77"/>
+      <c r="AF64" s="77"/>
+      <c r="AG64" s="77"/>
+      <c r="AH64" s="77"/>
+      <c r="AI64" s="77"/>
+      <c r="AJ64" s="77"/>
+    </row>
+    <row r="65" spans="2:37">
+      <c r="B65" s="35"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="63"/>
+      <c r="U65" s="63"/>
+      <c r="V65" s="48"/>
+      <c r="W65" s="48"/>
+      <c r="X65" s="48"/>
+      <c r="Y65" s="48"/>
+      <c r="Z65" s="48"/>
+      <c r="AA65" s="48"/>
+      <c r="AB65" s="48"/>
+      <c r="AC65" s="48"/>
+      <c r="AD65" s="48"/>
+      <c r="AE65" s="48"/>
+      <c r="AF65" s="48"/>
+      <c r="AG65" s="48"/>
+      <c r="AH65" s="48"/>
+      <c r="AI65" s="48"/>
+      <c r="AJ65" s="48"/>
+    </row>
+    <row r="66" spans="2:37">
+      <c r="B66" s="35"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="63"/>
+      <c r="T66" s="63"/>
+      <c r="U66" s="63"/>
+      <c r="V66" s="53"/>
+      <c r="W66" s="53"/>
+      <c r="X66" s="53"/>
+      <c r="Y66" s="53"/>
+      <c r="Z66" s="53"/>
+      <c r="AA66" s="53"/>
+      <c r="AB66" s="53"/>
+      <c r="AC66" s="53"/>
+      <c r="AD66" s="53"/>
+      <c r="AE66" s="53"/>
+      <c r="AF66" s="53"/>
+      <c r="AG66" s="53"/>
+      <c r="AH66" s="53"/>
+      <c r="AI66" s="53"/>
+      <c r="AJ66" s="53"/>
+    </row>
+    <row r="67" spans="2:37">
+      <c r="B67" s="35"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="53"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="63"/>
+      <c r="R67" s="63"/>
+      <c r="S67" s="63"/>
+      <c r="T67" s="63"/>
+      <c r="U67" s="63"/>
+      <c r="V67" s="53"/>
+      <c r="W67" s="53"/>
+      <c r="X67" s="53"/>
+      <c r="Y67" s="53"/>
+      <c r="Z67" s="53"/>
+      <c r="AA67" s="53"/>
+      <c r="AB67" s="53"/>
+      <c r="AC67" s="53"/>
+      <c r="AD67" s="53"/>
+      <c r="AE67" s="53"/>
+      <c r="AF67" s="53"/>
+      <c r="AG67" s="53"/>
+      <c r="AH67" s="53"/>
+      <c r="AI67" s="53"/>
+      <c r="AJ67" s="53"/>
+    </row>
+    <row r="68" spans="2:37">
+      <c r="B68" s="35"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="63"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="63"/>
+      <c r="T68" s="63"/>
+      <c r="U68" s="63"/>
+      <c r="V68" s="53"/>
+      <c r="W68" s="53"/>
+      <c r="X68" s="53"/>
+      <c r="Y68" s="53"/>
+      <c r="Z68" s="53"/>
+      <c r="AA68" s="53"/>
+      <c r="AB68" s="53"/>
+      <c r="AC68" s="53"/>
+      <c r="AD68" s="53"/>
+      <c r="AE68" s="53"/>
+      <c r="AF68" s="53"/>
+      <c r="AG68" s="53"/>
+      <c r="AH68" s="53"/>
+      <c r="AI68" s="53"/>
+      <c r="AJ68" s="53"/>
+    </row>
+    <row r="69" spans="2:37">
+      <c r="B69" s="35"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="53"/>
+      <c r="U69" s="53"/>
+      <c r="V69" s="53"/>
+      <c r="W69" s="53"/>
+      <c r="X69" s="53"/>
+      <c r="Y69" s="53"/>
+      <c r="Z69" s="53"/>
+      <c r="AA69" s="53"/>
+      <c r="AB69" s="53"/>
+      <c r="AC69" s="53"/>
+      <c r="AD69" s="53"/>
+      <c r="AE69" s="53"/>
+      <c r="AF69" s="53"/>
+      <c r="AG69" s="53"/>
+      <c r="AH69" s="53"/>
+      <c r="AI69" s="53"/>
+      <c r="AJ69" s="53"/>
+    </row>
+    <row r="70" spans="2:37">
+      <c r="B70" s="35"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="53"/>
+      <c r="R70" s="53"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="53"/>
+      <c r="U70" s="53"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="53"/>
+      <c r="X70" s="53"/>
+      <c r="Y70" s="53"/>
+      <c r="Z70" s="53"/>
+      <c r="AA70" s="53"/>
+      <c r="AB70" s="53"/>
+      <c r="AC70" s="53"/>
+      <c r="AD70" s="53"/>
+      <c r="AE70" s="53"/>
+      <c r="AF70" s="53"/>
+      <c r="AG70" s="53"/>
+      <c r="AH70" s="53"/>
+      <c r="AI70" s="53"/>
+      <c r="AJ70" s="53"/>
+    </row>
+    <row r="71" spans="2:37">
+      <c r="B71" s="35"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="48"/>
+      <c r="P71" s="48"/>
+      <c r="Q71" s="48"/>
+      <c r="R71" s="48"/>
+      <c r="S71" s="48"/>
+      <c r="T71" s="48"/>
+      <c r="U71" s="48"/>
+      <c r="V71" s="48"/>
+      <c r="W71" s="48"/>
+      <c r="X71" s="48"/>
+      <c r="Y71" s="48"/>
+      <c r="Z71" s="48"/>
+      <c r="AA71" s="48"/>
+      <c r="AB71" s="48"/>
+      <c r="AC71" s="48"/>
+      <c r="AD71" s="48"/>
+      <c r="AE71" s="48"/>
+      <c r="AF71" s="48"/>
+      <c r="AG71" s="48"/>
+      <c r="AH71" s="48"/>
+      <c r="AI71" s="48"/>
+      <c r="AJ71" s="48"/>
+    </row>
+    <row r="72" spans="2:37">
+      <c r="B72" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="44"/>
-    </row>
-    <row r="49" spans="1:37">
-      <c r="C49" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="44"/>
-    </row>
-    <row r="50" spans="1:37">
-      <c r="C50" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="44"/>
-    </row>
-    <row r="52" spans="1:37" ht="15.75">
-      <c r="A52" s="36">
-        <v>5</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
-      <c r="AA52" s="37"/>
-      <c r="AB52" s="37"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="37"/>
-      <c r="AE52" s="37"/>
-      <c r="AF52" s="37"/>
-      <c r="AG52" s="37"/>
-      <c r="AH52" s="37"/>
-      <c r="AI52" s="37"/>
-      <c r="AJ52" s="37"/>
-    </row>
-    <row r="54" spans="1:37" ht="15.75" thickBot="1">
-      <c r="B54" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-    </row>
-    <row r="55" spans="1:37" ht="73.5" customHeight="1">
-      <c r="B55" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK55" s="57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37" ht="60">
-      <c r="B56" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="94"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="94"/>
-      <c r="T56" s="94"/>
-      <c r="U56" s="94"/>
-      <c r="V56" s="94"/>
-      <c r="W56" s="94"/>
-      <c r="X56" s="94"/>
-      <c r="Y56" s="94"/>
-      <c r="Z56" s="94"/>
-      <c r="AA56" s="94"/>
-      <c r="AB56" s="94"/>
-      <c r="AC56" s="94"/>
-      <c r="AD56" s="94"/>
-      <c r="AE56" s="94"/>
-      <c r="AF56" s="94"/>
-      <c r="AG56" s="94"/>
-      <c r="AH56" s="94"/>
-      <c r="AI56" s="94"/>
-      <c r="AJ56" s="94"/>
-      <c r="AK56" s="57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37">
-      <c r="B57" s="35"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="94"/>
-      <c r="T57" s="94"/>
-      <c r="U57" s="94"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
-      <c r="X57" s="94"/>
-      <c r="Y57" s="94"/>
-      <c r="Z57" s="94"/>
-      <c r="AA57" s="94"/>
-      <c r="AB57" s="94"/>
-      <c r="AC57" s="94"/>
-      <c r="AD57" s="94"/>
-      <c r="AE57" s="94"/>
-      <c r="AF57" s="94"/>
-      <c r="AG57" s="94"/>
-      <c r="AH57" s="94"/>
-      <c r="AI57" s="94"/>
-      <c r="AJ57" s="94"/>
-    </row>
-    <row r="58" spans="1:37">
-      <c r="B58" s="35"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50" t="s">
+      <c r="C72" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="49"/>
-      <c r="U58" s="49"/>
-      <c r="V58" s="49"/>
-      <c r="W58" s="49"/>
-      <c r="X58" s="49"/>
-      <c r="Y58" s="49"/>
-      <c r="Z58" s="49"/>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="49"/>
-      <c r="AC58" s="49"/>
-      <c r="AD58" s="49"/>
-      <c r="AE58" s="49"/>
-      <c r="AF58" s="49"/>
-      <c r="AG58" s="49"/>
-      <c r="AH58" s="49"/>
-      <c r="AI58" s="49"/>
-      <c r="AJ58" s="49"/>
-    </row>
-    <row r="59" spans="1:37">
-      <c r="B59" s="35"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="49"/>
-      <c r="V59" s="49"/>
-      <c r="W59" s="49"/>
-      <c r="X59" s="49"/>
-      <c r="Y59" s="49"/>
-      <c r="Z59" s="49"/>
-      <c r="AA59" s="49"/>
-      <c r="AB59" s="49"/>
-      <c r="AC59" s="49"/>
-      <c r="AD59" s="49"/>
-      <c r="AE59" s="49"/>
-      <c r="AF59" s="49"/>
-      <c r="AG59" s="49"/>
-      <c r="AH59" s="49"/>
-      <c r="AI59" s="49"/>
-      <c r="AJ59" s="49"/>
-    </row>
-    <row r="60" spans="1:37" ht="30">
-      <c r="B60" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="AK72" s="59"/>
+    </row>
+    <row r="73" spans="2:37">
+      <c r="B73" s="35"/>
+      <c r="C73" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="AK60" s="57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37">
-      <c r="B61" s="35"/>
-      <c r="C61" s="48" t="s">
+    </row>
+    <row r="74" spans="2:37">
+      <c r="C74" s="47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="62" spans="1:37">
-      <c r="C62" s="48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="37:37">
-      <c r="AK65" s="58"/>
-    </row>
-    <row r="66" spans="37:37">
-      <c r="AK66" s="60"/>
-    </row>
-    <row r="67" spans="37:37">
-      <c r="AK67" s="60"/>
-    </row>
-    <row r="68" spans="37:37">
-      <c r="AK68" s="60"/>
-    </row>
-    <row r="69" spans="37:37">
-      <c r="AK69" s="60"/>
-    </row>
-    <row r="70" spans="37:37">
-      <c r="AK70" s="60"/>
-    </row>
-    <row r="71" spans="37:37">
-      <c r="AK71" s="60"/>
-    </row>
-    <row r="72" spans="37:37">
-      <c r="AK72" s="60"/>
-    </row>
-    <row r="73" spans="37:37">
-      <c r="AK73" s="60"/>
-    </row>
-    <row r="74" spans="37:37">
-      <c r="AK74" s="60"/>
-    </row>
-    <row r="75" spans="37:37">
-      <c r="AK75" s="60"/>
-    </row>
-    <row r="76" spans="37:37">
-      <c r="AK76" s="60"/>
-    </row>
-    <row r="77" spans="37:37">
-      <c r="AK77" s="60"/>
-    </row>
-    <row r="78" spans="37:37">
-      <c r="AK78" s="60"/>
-    </row>
-    <row r="79" spans="37:37">
-      <c r="AK79" s="60"/>
-    </row>
-    <row r="80" spans="37:37">
-      <c r="AK80" s="60"/>
-    </row>
-    <row r="81" spans="37:37">
-      <c r="AK81" s="60"/>
-    </row>
-    <row r="82" spans="37:37">
-      <c r="AK82" s="60"/>
-    </row>
-    <row r="83" spans="37:37">
-      <c r="AK83" s="60"/>
-    </row>
-    <row r="84" spans="37:37">
-      <c r="AK84" s="60"/>
-    </row>
-    <row r="85" spans="37:37">
-      <c r="AK85" s="60"/>
-    </row>
-    <row r="86" spans="37:37">
-      <c r="AK86" s="60"/>
-    </row>
-    <row r="87" spans="37:37">
-      <c r="AK87" s="60"/>
-    </row>
-    <row r="88" spans="37:37">
-      <c r="AK88" s="60"/>
-    </row>
-    <row r="89" spans="37:37">
-      <c r="AK89" s="60"/>
-    </row>
-    <row r="90" spans="37:37">
-      <c r="AK90" s="60"/>
-    </row>
-    <row r="91" spans="37:37">
-      <c r="AK91" s="60"/>
-    </row>
-    <row r="92" spans="37:37">
-      <c r="AK92" s="60"/>
-    </row>
-    <row r="93" spans="37:37">
-      <c r="AK93" s="60"/>
-    </row>
-    <row r="94" spans="37:37">
-      <c r="AK94" s="60"/>
-    </row>
-    <row r="95" spans="37:37">
-      <c r="AK95" s="60"/>
-    </row>
-    <row r="96" spans="37:37">
-      <c r="AK96" s="60"/>
-    </row>
-    <row r="97" spans="37:37">
-      <c r="AK97" s="60"/>
-    </row>
-    <row r="98" spans="37:37">
-      <c r="AK98" s="60"/>
-    </row>
-    <row r="99" spans="37:37">
-      <c r="AK99" s="60"/>
-    </row>
-    <row r="100" spans="37:37">
-      <c r="AK100" s="60"/>
-    </row>
-    <row r="101" spans="37:37">
-      <c r="AK101" s="60"/>
-    </row>
-    <row r="102" spans="37:37">
-      <c r="AK102" s="60"/>
-    </row>
-    <row r="103" spans="37:37">
-      <c r="AK103" s="60"/>
-    </row>
-    <row r="104" spans="37:37">
-      <c r="AK104" s="60"/>
-    </row>
-    <row r="105" spans="37:37">
-      <c r="AK105" s="60"/>
-    </row>
-    <row r="106" spans="37:37">
-      <c r="AK106" s="60"/>
-    </row>
-    <row r="107" spans="37:37">
-      <c r="AK107" s="60"/>
-    </row>
-    <row r="108" spans="37:37">
-      <c r="AK108" s="60"/>
-    </row>
-    <row r="109" spans="37:37">
-      <c r="AK109" s="60"/>
-    </row>
-    <row r="110" spans="37:37">
-      <c r="AK110" s="60"/>
-    </row>
-    <row r="111" spans="37:37">
-      <c r="AK111" s="60"/>
-    </row>
-    <row r="112" spans="37:37">
-      <c r="AK112" s="60"/>
-    </row>
-    <row r="113" spans="37:37">
-      <c r="AK113" s="60"/>
-    </row>
-    <row r="114" spans="37:37">
-      <c r="AK114" s="60"/>
-    </row>
-    <row r="115" spans="37:37">
-      <c r="AK115" s="60"/>
-    </row>
-    <row r="116" spans="37:37">
-      <c r="AK116" s="60"/>
-    </row>
-    <row r="117" spans="37:37">
-      <c r="AK117" s="60"/>
-    </row>
-    <row r="118" spans="37:37">
-      <c r="AK118" s="60"/>
-    </row>
-    <row r="119" spans="37:37">
-      <c r="AK119" s="60"/>
-    </row>
-    <row r="120" spans="37:37">
-      <c r="AK120" s="60"/>
-    </row>
-    <row r="121" spans="37:37">
-      <c r="AK121" s="60"/>
-    </row>
-    <row r="122" spans="37:37">
-      <c r="AK122" s="60"/>
-    </row>
-    <row r="123" spans="37:37">
-      <c r="AK123" s="60"/>
-    </row>
-    <row r="124" spans="37:37">
-      <c r="AK124" s="60"/>
-    </row>
-    <row r="125" spans="37:37">
-      <c r="AK125" s="60"/>
-    </row>
-    <row r="126" spans="37:37">
-      <c r="AK126" s="60"/>
-    </row>
-    <row r="127" spans="37:37">
-      <c r="AK127" s="60"/>
-    </row>
-    <row r="128" spans="37:37">
-      <c r="AK128" s="60"/>
-    </row>
-    <row r="129" spans="37:37">
-      <c r="AK129" s="60"/>
-    </row>
-    <row r="130" spans="37:37">
-      <c r="AK130" s="60"/>
-    </row>
-    <row r="131" spans="37:37">
-      <c r="AK131" s="60"/>
-    </row>
-    <row r="132" spans="37:37">
-      <c r="AK132" s="60"/>
-    </row>
-    <row r="133" spans="37:37">
-      <c r="AK133" s="60"/>
-    </row>
-    <row r="134" spans="37:37">
-      <c r="AK134" s="60"/>
-    </row>
-    <row r="135" spans="37:37">
-      <c r="AK135" s="60"/>
-    </row>
-    <row r="136" spans="37:37">
-      <c r="AK136" s="60"/>
-    </row>
-    <row r="137" spans="37:37">
-      <c r="AK137" s="60"/>
-    </row>
-    <row r="138" spans="37:37">
-      <c r="AK138" s="60"/>
-    </row>
-    <row r="139" spans="37:37">
-      <c r="AK139" s="60"/>
-    </row>
-    <row r="140" spans="37:37">
-      <c r="AK140" s="60"/>
-    </row>
-    <row r="141" spans="37:37">
-      <c r="AK141" s="60"/>
-    </row>
-    <row r="142" spans="37:37">
-      <c r="AK142" s="60"/>
-    </row>
-    <row r="143" spans="37:37">
-      <c r="AK143" s="60"/>
-    </row>
-    <row r="144" spans="37:37">
-      <c r="AK144" s="60"/>
-    </row>
-    <row r="145" spans="37:37">
-      <c r="AK145" s="60"/>
-    </row>
-    <row r="146" spans="37:37">
-      <c r="AK146" s="60"/>
-    </row>
-    <row r="147" spans="37:37">
-      <c r="AK147" s="60"/>
-    </row>
-    <row r="148" spans="37:37">
-      <c r="AK148" s="60"/>
-    </row>
-    <row r="149" spans="37:37">
-      <c r="AK149" s="60"/>
-    </row>
-    <row r="150" spans="37:37">
-      <c r="AK150" s="60"/>
-    </row>
-    <row r="151" spans="37:37">
-      <c r="AK151" s="60"/>
-    </row>
-    <row r="152" spans="37:37">
-      <c r="AK152" s="60"/>
-    </row>
-    <row r="153" spans="37:37">
-      <c r="AK153" s="60"/>
-    </row>
-    <row r="154" spans="37:37">
-      <c r="AK154" s="60"/>
-    </row>
-    <row r="155" spans="37:37">
-      <c r="AK155" s="60"/>
-    </row>
-    <row r="156" spans="37:37">
-      <c r="AK156" s="60"/>
-    </row>
-    <row r="157" spans="37:37">
-      <c r="AK157" s="60"/>
-    </row>
-    <row r="158" spans="37:37">
-      <c r="AK158" s="60"/>
-    </row>
-    <row r="159" spans="37:37">
-      <c r="AK159" s="60"/>
-    </row>
-    <row r="160" spans="37:37">
-      <c r="AK160" s="60"/>
-    </row>
-    <row r="161" spans="37:37">
-      <c r="AK161" s="60"/>
-    </row>
-    <row r="162" spans="37:37">
-      <c r="AK162" s="60"/>
-    </row>
-    <row r="163" spans="37:37">
-      <c r="AK163" s="60"/>
-    </row>
-    <row r="164" spans="37:37">
-      <c r="AK164" s="60"/>
-    </row>
-    <row r="165" spans="37:37">
-      <c r="AK165" s="59"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="19">
-    <mergeCell ref="AK17:AK22"/>
-    <mergeCell ref="AK5:AK9"/>
-    <mergeCell ref="C56:AJ57"/>
-    <mergeCell ref="B32:AJ33"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="C19:AJ19"/>
-    <mergeCell ref="M3:V4"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AK1:AK4"/>
-    <mergeCell ref="AK10:AK16"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:V2"/>
+  <mergeCells count="29">
     <mergeCell ref="W1:AJ1"/>
     <mergeCell ref="W2:AJ2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:H4"/>
     <mergeCell ref="I3:L4"/>
+    <mergeCell ref="K10:U10"/>
+    <mergeCell ref="AK22:AK29"/>
+    <mergeCell ref="AK5:AK12"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="C24:AJ24"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AK1:AK4"/>
+    <mergeCell ref="AK13:AK21"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="V44:AF44"/>
+    <mergeCell ref="AC62:AE62"/>
+    <mergeCell ref="Q65:U68"/>
+    <mergeCell ref="K19:U19"/>
+    <mergeCell ref="K27:U27"/>
+    <mergeCell ref="X33:AH33"/>
+    <mergeCell ref="X34:AH34"/>
+    <mergeCell ref="X35:AH35"/>
+    <mergeCell ref="C63:AJ64"/>
+    <mergeCell ref="B39:AJ40"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.39370078740157483" bottom="0.31496062992125984" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A&amp;R&amp;13&amp;KFF0000Kéo sang phải để xem các công việc đã hoàn thành</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
